--- a/PABMI/0 PABI/MATRIS DE PRUEBAS/Matriz de Pruebas Alta PABI Catálogos.xlsx
+++ b/PABMI/0 PABI/MATRIS DE PRUEBAS/Matriz de Pruebas Alta PABI Catálogos.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catálogos PABI'!$A$1:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catálogos PABI'!$A$1:$N$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="101">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Cuenta de N° Caso</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
   <si>
     <t>Pendiente</t>
@@ -409,6 +406,21 @@
   </si>
   <si>
     <t xml:space="preserve">Eliminar registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Registros </t>
+  </si>
+  <si>
+    <t>Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda.</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABI-320</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
   </si>
 </sst>
 </file>
@@ -737,7 +749,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,6 +788,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,12 +857,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -842,7 +864,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -907,20 +932,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t> Alta Por</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> Requisición</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t> </a:t>
+              <a:t> Catálogos </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,6 +1897,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF">
@@ -1934,6 +1953,7 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
+              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -2192,9 +2212,46 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
+              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2302,102 +2359,6 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2475063790303876E-2"/>
-                  <c:y val="-0.10999329309188464"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:alpha val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="4.3681262180432036E-2"/>
-                      <c:h val="8.9348690568608488E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6497332405474368E-2"/>
-                  <c:y val="-5.3655264922870555E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
                   <c:x val="-7.5156576200417602E-2"/>
                   <c:y val="3.2193158953722233E-2"/>
                 </c:manualLayout>
@@ -2409,9 +2370,11 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2485,40 +2448,35 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$7</c:f>
+              <c:f>GRAFICOS!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Error</c:v>
+                  <c:v>Realizado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pendiente</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Realizado</c:v>
+                  <c:v>Error </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$7</c:f>
+              <c:f>GRAFICOS!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,6 +2509,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2682,6 +2641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2872,6 +2832,45 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="10800000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2939,21 +2938,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25</c:f>
+              <c:f>GRAFICOS!$A$25:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Por hacer </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25</c:f>
+              <c:f>GRAFICOS!$B$25:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3106,6 +3114,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3226,6 +3235,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,7 +3904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Por hacer </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3934,21 +3944,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49</c:f>
+              <c:f>GRAFICOS!$A$49:$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Gerardo Flores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$49</c:f>
+              <c:f>GRAFICOS!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4099,6 +4112,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6023,16 +6037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6059,16 +6073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6095,16 +6109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6170,81 +6184,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45272.57129699074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45355.374655555555" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N11" sheet="Catálogos PABI"/>
+    <worksheetSource ref="A6:N200" sheet="Catálogos PABI"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="11"/>
-    </cacheField>
-    <cacheField name="Menús" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Submenú" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Perfil" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Usuario " numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Acción" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="5">
-        <m/>
-        <s v="Noe Treviño" u="1"/>
-        <s v="Enrique Leal " u="1"/>
-        <s v="Gerardo Flores" u="1"/>
-        <s v="Mayra Cortes" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
-        <m/>
-        <s v="Finalizada " u="1"/>
-        <s v="En Curso" u="1"/>
-        <s v="Tarea por hacer" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fecha " numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-12T00:00:00" maxDate="2023-12-13T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45273.419270486113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A6:L11" sheet="Catálogos PABI"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="70"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -6262,12 +6208,74 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Resultado Obtenido" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Resultado Esperado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Indicente" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="156" maxValue="156"/>
+    </cacheField>
+    <cacheField name="Desarrollador" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="Gerardo Flores"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estatus Incidente" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="Por hacer "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="N° de Tarea Jira" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fecha " numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-03-01T00:00:00" maxDate="2024-03-02T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45355.374656134256" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:L200" sheet="Catálogos PABI"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="N° Caso" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="70"/>
+    </cacheField>
+    <cacheField name="Menús" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Submenú" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Perfil" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Usuario " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
         <s v="Realizado"/>
+        <m/>
         <s v="Error "/>
-        <s v="Error"/>
-        <s v="Pendiente"/>
-        <m/>
+        <s v="Pendiente" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
@@ -6277,7 +6285,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="156" maxValue="156"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -6295,13 +6303,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="72">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
-    <s v="https://tesoreria-virtual.nl.gob.mx/"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <s v="Realizado"/>
     <s v="Ingreso Correctamente al sistema"/>
@@ -6310,14 +6318,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <d v="2024-03-01T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="CLECHUGA"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <s v="Realizado"/>
     <s v="Ingreso correctamente con el usuario correspondiente "/>
@@ -6326,14 +6334,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <d v="2024-03-01T00:00:00"/>
   </r>
   <r>
     <n v="3"/>
-    <s v="Aplicación PABMI"/>
-    <s v="PABMI"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Aplicación PABI"/>
+    <s v="PABI"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <s v="Realizado"/>
     <s v="Se ingresa al sistema PABMI, "/>
@@ -6342,14 +6350,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <d v="2024-03-01T00:00:00"/>
   </r>
   <r>
     <n v="4"/>
     <s v="Principal "/>
     <s v="Menú Inicio"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Despliegue"/>
     <s v="Realizado"/>
     <s v="Despliegue de menú principal, se visualizan los demás submenus "/>
@@ -6358,14 +6366,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <d v="2024-03-01T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
     <s v="Inicio"/>
     <s v="Inicio "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Inicio "/>
     <s v="Realizado"/>
     <s v="Direcciona página principal"/>
@@ -6374,115 +6382,1091 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <d v="2024-03-01T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
-    <s v="Muebles "/>
-    <s v="Almacén "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Administración "/>
+    <s v="Administración "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
+    <m/>
+    <s v="Ingresar al menú "/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Catálogos "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <m/>
     <s v="Realizado"/>
-    <s v="Despliegue de menú Almacén"/>
-    <s v="Despliegue de menú Almacén "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="Almacén "/>
-    <s v="ALTAS "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Ingresar "/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <n v="156"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://pabmi.atlassian.net/browse/PABI-320"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
     <s v="Realizado"/>
-    <s v="Inglesa a la pantalla Listado de Altas "/>
-    <s v="Inglesa a la pantalla Listado de Altas "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Nuevo  "/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
     <s v="Realizado"/>
-    <s v="Acceso para cargar plantilla con registros "/>
-    <s v="Acceso para dar de alta un nuevo registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Buscar "/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
     <s v="Realizado"/>
-    <s v="Buscar registros "/>
-    <s v="Busca Registros "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Botón Buscar por fecha "/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
     <s v="Realizado"/>
-    <s v="Buscar registros por fechas "/>
-    <s v="Buscar registros por fechas "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Limpiar "/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
     <s v="Realizado"/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-12-12T00:00:00"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes_x000a__x000a__x000a_"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <s v="Error "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <s v="Realizado"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="72">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
-    <s v="https://tesoreria-virtual.nl.gob.mx/"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Ingreso Correctamente al sistema"/>
@@ -6494,9 +7478,9 @@
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="CLECHUGA"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Ingreso correctamente con el usuario correspondiente "/>
@@ -6507,10 +7491,10 @@
   </r>
   <r>
     <n v="3"/>
-    <s v="Aplicación PABMI"/>
-    <s v="PABMI"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Aplicación PABI"/>
+    <s v="PABI"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Se ingresa al sistema PABMI, "/>
@@ -6523,8 +7507,8 @@
     <n v="4"/>
     <s v="Principal "/>
     <s v="Menú Inicio"/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Despliegue"/>
     <x v="0"/>
     <s v="Despliegue de menú principal, se visualizan los demás submenus "/>
@@ -6537,8 +7521,8 @@
     <n v="5"/>
     <s v="Inicio"/>
     <s v="Inicio "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Inicio "/>
     <x v="0"/>
     <s v="Direcciona página principal"/>
@@ -6549,432 +7533,936 @@
   </r>
   <r>
     <n v="6"/>
-    <s v="Muebles "/>
-    <s v="Almacén "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
+    <s v="Administración "/>
+    <s v="Administración "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
     <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Despliegue de menú Almacén"/>
-    <s v="Despliegue de menú Almacén "/>
+    <x v="1"/>
+    <s v="Ingresar al menú "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="7"/>
-    <s v="Almacén "/>
-    <s v="ALTAS "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Inglesa a la pantalla Listado de Altas "/>
-    <s v="Inglesa a la pantalla Listado de Altas "/>
+    <s v="Catálogos "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="8"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Nuevo  "/>
-    <x v="0"/>
-    <s v="Acceso para cargar plantilla con registros "/>
-    <s v="Acceso para dar de alta un nuevo registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Buscar "/>
-    <x v="0"/>
-    <s v="Buscar registros "/>
-    <s v="Busca Registros "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Botón Buscar por fecha "/>
-    <x v="0"/>
-    <s v="Buscar registros por fechas "/>
-    <s v="Buscar registros por fechas "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Limpiar "/>
-    <x v="0"/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Cargar Factura "/>
-    <x v="1"/>
-    <s v="Cargar Factura especificar que tipo de documento si es PDF o PNG "/>
-    <s v="Cargar Factura "/>
-    <m/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <n v="156"/>
     <s v="Gerardo Flores"/>
     <s v="Por hacer "/>
   </r>
   <r>
+    <n v="9"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Carácter de Monumento "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <n v="13"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Almacén de Gobierno "/>
-    <s v="altagracia.mendoza"/>
-    <s v="Ver Factura "/>
-    <x v="0"/>
-    <s v="Visualizar Factura "/>
-    <s v="Visualizar Factura, la factura estará lista para confirmacion por parte del coordinador de bienes muebles "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Entidades Feeerativas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="14"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Ver Factura "/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Visualizar Factura "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="15"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Autorizar "/>
-    <x v="0"/>
-    <s v="Autorizar Factura "/>
-    <s v="Autorizar Factura "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="16"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Rechazar "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus de Instrumnentos Juridicos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
     <x v="2"/>
-    <s v="Solo cambia el Boton de detalle a Editar pero no tiene ninguna notificacicion donde muestre que la factura esta rechazada"/>
-    <s v="Rechazar Factura "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Confirmar Factura "/>
-    <x v="0"/>
-    <s v="La factura se confirma y cambia el nombre de estatus a Factura Confirmada "/>
-    <s v="Factura confirmada lista para continuar con el proceso de asignar un enlace por parte del Coordinador de Dependencia "/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="18"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de la Dependencia "/>
-    <s v="luis.andres "/>
-    <s v="Seleccionar Enlace "/>
-    <x v="0"/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
-    <s v="Limpiar las fechas seleccionadas de busqueda "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="19"/>
-    <s v="Altas "/>
-    <s v="Listado de Altas "/>
-    <s v="Coordinador de la Dependencia "/>
-    <s v="luis.andres "/>
-    <s v="Asignar "/>
-    <x v="0"/>
-    <s v="Asignación del Resguardante "/>
-    <s v="Asignación del Resguardante "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Estatus Vigencia "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="20"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Seleccionar Registros "/>
-    <x v="0"/>
-    <s v="Seleccionar el registro para resguardo "/>
-    <s v="Seleccionar el registro para resguardo "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="21"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Resguardar "/>
-    <x v="0"/>
-    <s v="El reguistro será asignado a resguardos "/>
-    <s v="El reguistro será asignado a resguardos "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="22"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Asignación Número de Resguardo "/>
-    <x v="0"/>
-    <s v="Se creeará el número de resguardo "/>
-    <s v="Se creeará el número de resguardo "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Historias"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="23"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v=" Archivo FRDP-001"/>
-    <x v="0"/>
-    <s v="Descarga de Archivo FRDP-001"/>
-    <s v="Descarga de Archivo FRDP-001"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="24"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v=" Archivo FRDP-002"/>
-    <x v="0"/>
-    <s v="Descarga de Archivo FRDP-002"/>
-    <s v="Descarga de Archivo FRDP-002"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="25"/>
-    <s v="Asignaciones "/>
-    <s v="Listado de Asignaciones por enlace "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v=" Inventario "/>
-    <x v="0"/>
-    <s v="Descarga de Inventario "/>
-    <s v="Descarga de Inventario "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Instrumento Jurídico "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="26"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Carga Formato FRDP-001"/>
-    <x v="0"/>
-    <s v="Carga de Archivo FRDP-001"/>
-    <s v="Carga de Archivo FRDP-001"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="27"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Carga Formato FRDP-002"/>
-    <x v="0"/>
-    <s v="Carga de Archivo FRDP-002"/>
-    <s v="Carga de Archivo FRDP-002"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="28"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Enlace de la dependencia "/>
-    <s v="luis.sierra "/>
-    <s v="Carga Formato Inventario "/>
-    <x v="0"/>
-    <s v="Carga de Formato Inventarios "/>
-    <s v="Carga de documentos Firmados Listos para continuar con con la confirmación de la impresión del QR con el coordinador de bienes muebles "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Movimientos "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="29"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Autorizar "/>
-    <x v="0"/>
-    <s v="Agragar Tooltips descriptivos en los botones "/>
-    <s v="Autorizar Confirmación del Codigo QR "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="30"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Coordinador de bienes muebles "/>
-    <s v="judith.jaramillo"/>
-    <s v="Agendar cita "/>
-    <x v="0"/>
-    <s v="Agragar Tooltips descriptivos en los botones "/>
-    <s v="Agendar Cita "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="31"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Impresión QR "/>
-    <x v="3"/>
-    <s v="Se visualiza la pestaña para la impresión sin Embargo no se tiene una impresora para la impresión "/>
-    <s v="Tooltip descriptivo del botón de Impresión "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Naturaleza del Inmueble "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="32"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Agendar la Visita "/>
-    <x v="3"/>
-    <s v="El botón no tiene ninguna indicacion de su funcionalidad "/>
-    <s v="Agenda la visita para colocar QR "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="33"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Finalizar "/>
-    <x v="0"/>
-    <s v="Finaliza el Poceso de la Alta "/>
-    <s v="Finaliza el Poceso de la Alta "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="34"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Finalizados "/>
-    <x v="0"/>
-    <s v="Muestra lista de Procesos finalizados "/>
-    <s v="Muestra lista de Procesos finalizados "/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Operaciones de Origen "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="35"/>
-    <s v="Resguardos "/>
-    <s v="Listado de Resguardos "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Trazabilidad "/>
-    <x v="0"/>
-    <s v="visualizar todo el flujo completo del Alta por gasto corriente"/>
-    <s v="visualizar todo el flujo completo del Alta por gasto corriente"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Proveedor Avalúo"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Situación Inmuebles"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Solicitados por "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Altas "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Asentamiento"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Inmueble"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos Instrumentos Juridicos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipo de Vialidad"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes_x000a__x000a__x000a_"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Tipos de contrapartes"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v=" Tipo de Titulos"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos de compras"/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Agregar "/>
+    <x v="2"/>
+    <s v="Agrega registros sin embago se pueden agregar registros dublicados en nombre, descripción etc. Validar si se tiene algún rango de caracteres numéricos y símbolos ortográficos, Se sugiere agregar un filtro de búsqueda."/>
+    <s v="Agregar Nuevo Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Editar "/>
+    <x v="0"/>
+    <s v="Edita registros "/>
+    <s v="Editar Registro guardando cambios "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Catálogo Bienes Inmuebles "/>
+    <s v="Usos Temporales "/>
+    <s v="Prueba "/>
+    <s v="clechuga"/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina Registros "/>
+    <s v="Eliminar registros "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6985,8 +8473,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7000,11 +8488,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7014,7 +8500,13 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7026,7 +8518,7 @@
     <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7049,8 +8541,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7059,12 +8551,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7077,12 +8568,9 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -7098,7 +8586,7 @@
     <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -7116,7 +8604,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="39">
+    <chartFormat chart="0" format="41">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7128,19 +8616,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="40">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="41">
+    <chartFormat chart="0" format="42">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7148,6 +8624,18 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -7166,8 +8654,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7180,21 +8668,16 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="3">
         <item h="1" x="0"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item h="1" m="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
+      <items count="3">
         <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7204,7 +8687,10 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7212,7 +8698,10 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="1">
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7220,7 +8709,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="2">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -7238,18 +8727,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -7514,15 +8991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.75" bestFit="1" customWidth="1"/>
@@ -7539,94 +9015,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -7680,13 +9156,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
         <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -7695,15 +9171,15 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="12"/>
       <c r="M7" s="13"/>
       <c r="N7" s="1">
-        <v>45272</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7714,13 +9190,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -7729,15 +9205,15 @@
         <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="13"/>
       <c r="N8" s="1">
-        <v>45272</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -7745,16 +9221,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -7763,15 +9239,15 @@
         <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2"/>
       <c r="M9" s="13"/>
       <c r="N9" s="1">
-        <v>45272</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
@@ -7782,13 +9258,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -7797,15 +9273,15 @@
         <v>17</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2"/>
       <c r="M10" s="6"/>
       <c r="N10" s="1">
-        <v>45272</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -7819,10 +9295,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -7831,15 +9307,15 @@
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2"/>
       <c r="M11" s="6"/>
       <c r="N11" s="1">
-        <v>45272</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -7847,22 +9323,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45352</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7870,39 +9349,66 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J14">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45352</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7910,22 +9416,31 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N15" s="1">
+        <v>45352</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7933,1408 +9448,1972 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N19" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N24" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N28" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N33" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
         <v>59</v>
       </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
         <v>59</v>
       </c>
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
         <v>59</v>
       </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N37" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
         <v>59</v>
       </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
         <v>59</v>
       </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
         <v>59</v>
       </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
         <v>59</v>
       </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
         <v>59</v>
       </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N42" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
         <v>59</v>
       </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N43" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
         <v>59</v>
       </c>
-      <c r="E44" t="s">
-        <v>60</v>
-      </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N44" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
         <v>59</v>
       </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N45" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
         <v>59</v>
       </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N46" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D47" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
         <v>59</v>
       </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N47" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D48" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
         <v>59</v>
       </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N48" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D49" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
         <v>59</v>
       </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N49" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D50" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
         <v>59</v>
       </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
         <v>59</v>
       </c>
-      <c r="E51" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N51" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D52" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
         <v>59</v>
       </c>
-      <c r="E52" t="s">
-        <v>60</v>
-      </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N52" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D53" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
         <v>59</v>
       </c>
-      <c r="E53" t="s">
-        <v>60</v>
-      </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N53" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="E54" t="s">
-        <v>60</v>
-      </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N54" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D55" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="E55" t="s">
-        <v>60</v>
-      </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D56" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="E56" t="s">
-        <v>60</v>
-      </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D57" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
         <v>59</v>
       </c>
-      <c r="E57" t="s">
-        <v>60</v>
-      </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N57" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D58" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="E58" t="s">
-        <v>60</v>
-      </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N58" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
         <v>59</v>
       </c>
-      <c r="E59" t="s">
-        <v>60</v>
-      </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N59" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="E60" t="s">
-        <v>60</v>
-      </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D61" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="E61" t="s">
-        <v>60</v>
-      </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
         <v>59</v>
       </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N63" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D64" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
         <v>59</v>
       </c>
-      <c r="E64" t="s">
-        <v>60</v>
-      </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N64" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>88</v>
+      <c r="B65" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D65" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
         <v>59</v>
       </c>
-      <c r="E65" t="s">
-        <v>60</v>
-      </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N65" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="D66" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
         <v>59</v>
       </c>
-      <c r="E66" t="s">
-        <v>60</v>
-      </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="D67" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
         <v>59</v>
       </c>
-      <c r="E67" t="s">
-        <v>60</v>
-      </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N67" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D68" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
         <v>59</v>
       </c>
-      <c r="E68" t="s">
-        <v>60</v>
-      </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N68" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D69" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
         <v>59</v>
       </c>
-      <c r="E69" t="s">
-        <v>60</v>
-      </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N69" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D70" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
         <v>59</v>
       </c>
-      <c r="E70" t="s">
-        <v>60</v>
-      </c>
       <c r="F70" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N70" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D71" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
         <v>59</v>
       </c>
-      <c r="E71" t="s">
-        <v>60</v>
-      </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N71" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D72" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
         <v>59</v>
       </c>
-      <c r="E72" t="s">
-        <v>60</v>
-      </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N72" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D73" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" t="s">
         <v>59</v>
       </c>
-      <c r="E73" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N73" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>68</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
         <v>59</v>
       </c>
-      <c r="E74" t="s">
-        <v>60</v>
-      </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="N74" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D75" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
         <v>59</v>
       </c>
-      <c r="E75" t="s">
-        <v>60</v>
-      </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N75" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D76" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" t="s">
         <v>59</v>
       </c>
-      <c r="E76" t="s">
-        <v>60</v>
-      </c>
       <c r="F76" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="N76" s="1">
+        <v>45352</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N76">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
@@ -9346,9 +11425,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -9362,13 +11442,13 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L11</xm:sqref>
+          <xm:sqref>L8:L11 L14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K11</xm:sqref>
+          <xm:sqref>K7:K11 K14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9384,18 +11464,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B49"/>
+  <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
@@ -9409,39 +11488,31 @@
         <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="15">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B5" s="16">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="17">
-        <v>34</v>
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9453,32 +11524,69 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="17"/>
+      <c r="A25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="15">
+        <v>69</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="B49" s="18">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="18">
+        <v>1</v>
+      </c>
+      <c r="C50" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9493,7 +11601,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9504,7 +11612,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -9518,70 +11626,70 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
